--- a/OnBoard/output/trust/bio/Bio_Trust_72.xlsx
+++ b/OnBoard/output/trust/bio/Bio_Trust_72.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q170"/>
+  <dimension ref="A1:Q120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -447,7 +447,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -462,12 +462,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F2">
@@ -477,14 +477,19 @@
         <v>1</v>
       </c>
       <c r="H2">
-        <v>171</v>
+        <v>30</v>
       </c>
       <c r="I2">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L2">
@@ -494,7 +499,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -509,12 +514,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F3">
@@ -524,14 +529,19 @@
         <v>1</v>
       </c>
       <c r="H3">
-        <v>165</v>
+        <v>26</v>
       </c>
       <c r="I3">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L3">
@@ -541,7 +551,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -556,12 +566,12 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F4">
@@ -571,14 +581,19 @@
         <v>1</v>
       </c>
       <c r="H4">
-        <v>155</v>
+        <v>26</v>
       </c>
       <c r="I4">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L4">
@@ -588,7 +603,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -603,12 +618,12 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F5">
@@ -618,14 +633,19 @@
         <v>1</v>
       </c>
       <c r="H5">
-        <v>247</v>
+        <v>28</v>
       </c>
       <c r="I5">
-        <v>-1</v>
+        <v>11</v>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L5">
@@ -635,7 +655,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -650,12 +670,12 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F6">
@@ -665,14 +685,19 @@
         <v>1</v>
       </c>
       <c r="H6">
-        <v>271</v>
+        <v>24</v>
       </c>
       <c r="I6">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L6">
@@ -682,7 +707,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -697,12 +722,12 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F7">
@@ -712,24 +737,34 @@
         <v>1</v>
       </c>
       <c r="H7">
-        <v>267</v>
+        <v>28</v>
       </c>
       <c r="I7">
-        <v>-1</v>
+        <v>12</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L7">
         <v>0</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -744,12 +779,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F8">
@@ -759,14 +794,19 @@
         <v>1</v>
       </c>
       <c r="H8">
-        <v>235</v>
+        <v>25</v>
       </c>
       <c r="I8">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L8">
@@ -776,7 +816,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -791,12 +831,12 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F9">
@@ -806,14 +846,19 @@
         <v>1</v>
       </c>
       <c r="H9">
-        <v>238</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L9">
@@ -823,7 +868,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -838,12 +883,12 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F10">
@@ -853,14 +898,19 @@
         <v>1</v>
       </c>
       <c r="H10">
-        <v>169</v>
+        <v>24</v>
       </c>
       <c r="I10">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L10">
@@ -870,7 +920,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -885,12 +935,12 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F11">
@@ -900,24 +950,34 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>166</v>
+        <v>24</v>
       </c>
       <c r="I11">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L11">
         <v>0</v>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -932,12 +992,12 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>URANSCA</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F12">
@@ -947,14 +1007,19 @@
         <v>1</v>
       </c>
       <c r="H12">
-        <v>214</v>
+        <v>28</v>
       </c>
       <c r="I12">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L12">
@@ -964,7 +1029,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -979,12 +1044,12 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F13">
@@ -994,14 +1059,19 @@
         <v>1</v>
       </c>
       <c r="H13">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="I13">
-        <v>-1</v>
+        <v>8</v>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L13">
@@ -1011,7 +1081,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -1026,12 +1096,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F14">
@@ -1041,24 +1111,34 @@
         <v>1</v>
       </c>
       <c r="H14">
-        <v>178</v>
+        <v>26</v>
       </c>
       <c r="I14">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L14">
         <v>0</v>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>NA l inferred</t>
+        </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -1073,12 +1153,12 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>TRAHDRA</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F15">
@@ -1088,14 +1168,19 @@
         <v>1</v>
       </c>
       <c r="H15">
-        <v>189</v>
+        <v>29</v>
       </c>
       <c r="I15">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L15">
@@ -1105,7 +1190,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -1120,12 +1205,12 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>BUGLLUT</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F16">
@@ -1135,14 +1220,19 @@
         <v>1</v>
       </c>
       <c r="H16">
-        <v>97</v>
+        <v>26</v>
       </c>
       <c r="I16">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L16">
@@ -1152,7 +1242,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -1167,12 +1257,12 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F17">
@@ -1182,14 +1272,19 @@
         <v>1</v>
       </c>
       <c r="H17">
-        <v>132</v>
+        <v>25</v>
       </c>
       <c r="I17">
-        <v>-1</v>
+        <v>9</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L17">
@@ -1199,7 +1294,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -1214,12 +1309,12 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F18">
@@ -1229,14 +1324,14 @@
         <v>1</v>
       </c>
       <c r="H18">
-        <v>132</v>
+        <v>21</v>
       </c>
       <c r="I18">
-        <v>-1</v>
+        <v>6</v>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L18">
@@ -1246,7 +1341,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -1261,12 +1356,12 @@
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F19">
@@ -1276,14 +1371,14 @@
         <v>1</v>
       </c>
       <c r="H19">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="I19">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L19">
@@ -1293,7 +1388,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
@@ -1308,12 +1403,12 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>PAPELON</t>
         </is>
       </c>
       <c r="F20">
@@ -1323,14 +1418,14 @@
         <v>1</v>
       </c>
       <c r="H20">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="I20">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L20">
@@ -1340,7 +1435,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1355,12 +1450,12 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F21">
@@ -1370,14 +1465,19 @@
         <v>1</v>
       </c>
       <c r="H21">
-        <v>128</v>
+        <v>19</v>
       </c>
       <c r="I21">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>FROSQ-1</t>
         </is>
       </c>
       <c r="L21">
@@ -1387,7 +1487,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
@@ -1402,12 +1502,12 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>ARNOLAT</t>
+          <t>SQUIMAN</t>
         </is>
       </c>
       <c r="F22">
@@ -1417,14 +1517,14 @@
         <v>1</v>
       </c>
       <c r="H22">
-        <v>107</v>
+        <v>26</v>
       </c>
       <c r="I22">
-        <v>-1</v>
+        <v>25</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L22">
@@ -1434,7 +1534,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1449,12 +1549,12 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MULLBAR</t>
+          <t>NEPRNOR</t>
         </is>
       </c>
       <c r="F23">
@@ -1464,19 +1564,14 @@
         <v>1</v>
       </c>
       <c r="H23">
-        <v>155</v>
+        <v>324</v>
       </c>
       <c r="I23">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>MEDFI-4</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L23">
@@ -1486,7 +1581,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -1501,12 +1596,12 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F24">
@@ -1516,19 +1611,14 @@
         <v>1</v>
       </c>
       <c r="H24">
-        <v>265</v>
+        <v>104</v>
       </c>
       <c r="I24">
-        <v>126</v>
+        <v>-1</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L24">
@@ -1538,7 +1628,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -1553,12 +1643,12 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F25">
@@ -1568,19 +1658,14 @@
         <v>1</v>
       </c>
       <c r="H25">
-        <v>249</v>
+        <v>115</v>
       </c>
       <c r="I25">
-        <v>102</v>
+        <v>-1</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L25">
@@ -1590,7 +1675,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -1605,12 +1690,12 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F26">
@@ -1620,19 +1705,14 @@
         <v>1</v>
       </c>
       <c r="H26">
-        <v>184</v>
+        <v>87</v>
       </c>
       <c r="I26">
-        <v>43</v>
+        <v>-1</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L26">
@@ -1642,7 +1722,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -1657,12 +1737,12 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F27">
@@ -1672,19 +1752,14 @@
         <v>1</v>
       </c>
       <c r="H27">
-        <v>207</v>
+        <v>101</v>
       </c>
       <c r="I27">
-        <v>61</v>
+        <v>-1</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L27">
@@ -1694,7 +1769,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -1709,12 +1784,12 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F28">
@@ -1724,19 +1799,14 @@
         <v>1</v>
       </c>
       <c r="H28">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="I28">
-        <v>48</v>
+        <v>-1</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L28">
@@ -1746,7 +1816,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1761,12 +1831,12 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>CITHMAC</t>
         </is>
       </c>
       <c r="F29">
@@ -1776,19 +1846,14 @@
         <v>1</v>
       </c>
       <c r="H29">
-        <v>185</v>
+        <v>146</v>
       </c>
       <c r="I29">
-        <v>46</v>
+        <v>-1</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L29">
@@ -1798,7 +1863,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1813,12 +1878,12 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F30">
@@ -1828,19 +1893,14 @@
         <v>1</v>
       </c>
       <c r="H30">
-        <v>231</v>
+        <v>166</v>
       </c>
       <c r="I30">
-        <v>93</v>
+        <v>-1</v>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L30">
@@ -1850,7 +1910,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1865,12 +1925,12 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F31">
@@ -1880,19 +1940,14 @@
         <v>1</v>
       </c>
       <c r="H31">
-        <v>266</v>
+        <v>115</v>
       </c>
       <c r="I31">
-        <v>143</v>
+        <v>-1</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L31">
@@ -1902,7 +1957,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1917,12 +1972,12 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>MERLMER</t>
+          <t>EUTRGUR</t>
         </is>
       </c>
       <c r="F32">
@@ -1932,19 +1987,14 @@
         <v>1</v>
       </c>
       <c r="H32">
-        <v>270</v>
+        <v>132</v>
       </c>
       <c r="I32">
-        <v>134</v>
+        <v>-1</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L32">
@@ -1954,7 +2004,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1969,7 +2019,7 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
@@ -1984,19 +2034,19 @@
         <v>1</v>
       </c>
       <c r="H33">
-        <v>242</v>
+        <v>224</v>
       </c>
       <c r="I33">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>MEDFI-1</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L33">
@@ -2006,7 +2056,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -2021,7 +2071,7 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -2036,29 +2086,29 @@
         <v>1</v>
       </c>
       <c r="H34">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="I34">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L34">
         <v>0</v>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -2073,7 +2123,7 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -2088,10 +2138,10 @@
         <v>1</v>
       </c>
       <c r="H35">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="I35">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
@@ -2110,7 +2160,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -2125,12 +2175,12 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F36">
@@ -2140,19 +2190,19 @@
         <v>1</v>
       </c>
       <c r="H36">
-        <v>261</v>
+        <v>217</v>
       </c>
       <c r="I36">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K36" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L36">
@@ -2162,7 +2212,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
@@ -2177,12 +2227,12 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F37">
@@ -2192,19 +2242,19 @@
         <v>1</v>
       </c>
       <c r="H37">
-        <v>255</v>
+        <v>240</v>
       </c>
       <c r="I37">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K37" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L37">
@@ -2214,7 +2264,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
@@ -2229,12 +2279,12 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F38">
@@ -2244,19 +2294,19 @@
         <v>1</v>
       </c>
       <c r="H38">
-        <v>272</v>
+        <v>210</v>
       </c>
       <c r="I38">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L38">
@@ -2266,7 +2316,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
@@ -2281,12 +2331,12 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F39">
@@ -2296,10 +2346,10 @@
         <v>1</v>
       </c>
       <c r="H39">
-        <v>237</v>
+        <v>207</v>
       </c>
       <c r="I39">
-        <v>86</v>
+        <v>58</v>
       </c>
       <c r="J39" t="inlineStr">
         <is>
@@ -2308,7 +2358,7 @@
       </c>
       <c r="K39" t="inlineStr">
         <is>
-          <t>MEDSE-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L39">
@@ -2318,7 +2368,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
@@ -2333,12 +2383,12 @@
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F40">
@@ -2348,19 +2398,19 @@
         <v>1</v>
       </c>
       <c r="H40">
-        <v>553</v>
+        <v>207</v>
       </c>
       <c r="I40">
-        <v>1138</v>
+        <v>60</v>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
         <is>
-          <t>MEDSE-3</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L40">
@@ -2370,7 +2420,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
@@ -2385,12 +2435,12 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F41">
@@ -2400,19 +2450,14 @@
         <v>1</v>
       </c>
       <c r="H41">
-        <v>528</v>
+        <v>180</v>
       </c>
       <c r="I41">
-        <v>1118</v>
+        <v>35</v>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>MEDSE-3</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L41">
@@ -2422,7 +2467,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
@@ -2437,12 +2482,12 @@
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F42">
@@ -2452,10 +2497,10 @@
         <v>1</v>
       </c>
       <c r="H42">
-        <v>479</v>
+        <v>217</v>
       </c>
       <c r="I42">
-        <v>740</v>
+        <v>68</v>
       </c>
       <c r="J42" t="inlineStr">
         <is>
@@ -2464,7 +2509,7 @@
       </c>
       <c r="K42" t="inlineStr">
         <is>
-          <t>MEDSE-2</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L42">
@@ -2474,7 +2519,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
@@ -2489,12 +2534,12 @@
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F43">
@@ -2504,19 +2549,14 @@
         <v>1</v>
       </c>
       <c r="H43">
-        <v>265</v>
+        <v>170</v>
       </c>
       <c r="I43">
-        <v>119</v>
+        <v>28</v>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>MEDSE-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L43">
@@ -2526,7 +2566,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
@@ -2541,12 +2581,12 @@
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>RAJAAST</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F44">
@@ -2556,19 +2596,19 @@
         <v>1</v>
       </c>
       <c r="H44">
-        <v>483</v>
+        <v>206</v>
       </c>
       <c r="I44">
-        <v>671</v>
+        <v>57</v>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>MEDSE-2</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L44">
@@ -2578,7 +2618,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
@@ -2593,12 +2633,12 @@
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F45">
@@ -2608,19 +2648,19 @@
         <v>1</v>
       </c>
       <c r="H45">
-        <v>100</v>
+        <v>186</v>
       </c>
       <c r="I45">
-        <v>136</v>
+        <v>46</v>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>SOSEF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L45">
@@ -2630,7 +2670,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
@@ -2645,12 +2685,12 @@
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>SEPIOFF</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F46">
@@ -2660,10 +2700,10 @@
         <v>1</v>
       </c>
       <c r="H46">
-        <v>114</v>
+        <v>202</v>
       </c>
       <c r="I46">
-        <v>183</v>
+        <v>73</v>
       </c>
       <c r="J46" t="inlineStr">
         <is>
@@ -2672,7 +2712,7 @@
       </c>
       <c r="K46" t="inlineStr">
         <is>
-          <t>SOSEF-2</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L46">
@@ -2682,7 +2722,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
@@ -2697,12 +2737,12 @@
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>SCORNOT</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F47">
@@ -2712,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="H47">
-        <v>116</v>
+        <v>60</v>
       </c>
       <c r="I47">
         <v>-1</v>
@@ -2729,7 +2769,7 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
@@ -2744,12 +2784,12 @@
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F48">
@@ -2759,19 +2799,14 @@
         <v>1</v>
       </c>
       <c r="H48">
-        <v>28</v>
+        <v>100</v>
       </c>
       <c r="I48">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L48">
@@ -2781,7 +2816,7 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
@@ -2796,12 +2831,12 @@
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F49">
@@ -2811,10 +2846,10 @@
         <v>1</v>
       </c>
       <c r="H49">
-        <v>25</v>
+        <v>125</v>
       </c>
       <c r="I49">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="J49" t="inlineStr">
         <is>
@@ -2823,7 +2858,7 @@
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L49">
@@ -2833,7 +2868,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
@@ -2848,12 +2883,12 @@
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SEPIELE</t>
         </is>
       </c>
       <c r="F50">
@@ -2863,19 +2898,14 @@
         <v>1</v>
       </c>
       <c r="H50">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="I50">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J50" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L50">
@@ -2885,7 +2915,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
@@ -2900,12 +2930,12 @@
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F51">
@@ -2915,19 +2945,14 @@
         <v>1</v>
       </c>
       <c r="H51">
-        <v>23</v>
+        <v>264</v>
       </c>
       <c r="I51">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L51">
@@ -2937,7 +2962,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
@@ -2952,12 +2977,12 @@
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F52">
@@ -2967,19 +2992,14 @@
         <v>1</v>
       </c>
       <c r="H52">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="I52">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L52">
@@ -2989,7 +3009,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
@@ -3004,12 +3024,12 @@
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F53">
@@ -3019,14 +3039,14 @@
         <v>1</v>
       </c>
       <c r="H53">
-        <v>19</v>
+        <v>185</v>
       </c>
       <c r="I53">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L53">
@@ -3036,7 +3056,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
@@ -3051,12 +3071,12 @@
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F54">
@@ -3066,19 +3086,14 @@
         <v>1</v>
       </c>
       <c r="H54">
-        <v>24</v>
+        <v>205</v>
       </c>
       <c r="I54">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L54">
@@ -3088,7 +3103,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
@@ -3103,12 +3118,12 @@
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F55">
@@ -3118,19 +3133,14 @@
         <v>1</v>
       </c>
       <c r="H55">
-        <v>26</v>
+        <v>185</v>
       </c>
       <c r="I55">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L55">
@@ -3140,7 +3150,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
@@ -3155,12 +3165,12 @@
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F56">
@@ -3170,19 +3180,14 @@
         <v>1</v>
       </c>
       <c r="H56">
-        <v>20</v>
+        <v>210</v>
       </c>
       <c r="I56">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J56" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L56">
@@ -3192,7 +3197,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
@@ -3207,7 +3212,7 @@
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -3222,10 +3227,10 @@
         <v>1</v>
       </c>
       <c r="H57">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I57">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J57" t="inlineStr">
         <is>
@@ -3244,7 +3249,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
@@ -3259,12 +3264,12 @@
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F58">
@@ -3274,19 +3279,19 @@
         <v>1</v>
       </c>
       <c r="H58">
-        <v>28</v>
+        <v>465</v>
       </c>
       <c r="I58">
-        <v>12</v>
+        <v>610</v>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDSE-3</t>
         </is>
       </c>
       <c r="L58">
@@ -3296,7 +3301,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
@@ -3311,12 +3316,12 @@
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>2-RAP</t>
+          <t>1-RAP</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F59">
@@ -3326,19 +3331,19 @@
         <v>1</v>
       </c>
       <c r="H59">
-        <v>30</v>
+        <v>435</v>
       </c>
       <c r="I59">
-        <v>15</v>
+        <v>535</v>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDSE-3</t>
         </is>
       </c>
       <c r="L59">
@@ -3348,7 +3353,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
@@ -3381,7 +3386,7 @@
         <v>28</v>
       </c>
       <c r="I60">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J60" t="inlineStr">
         <is>
@@ -3400,7 +3405,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
@@ -3430,14 +3435,19 @@
         <v>1</v>
       </c>
       <c r="H61">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="I61">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L61">
@@ -3447,7 +3457,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
@@ -3477,14 +3487,19 @@
         <v>1</v>
       </c>
       <c r="H62">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="I62">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L62">
@@ -3494,7 +3509,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
@@ -3524,14 +3539,19 @@
         <v>1</v>
       </c>
       <c r="H63">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="I63">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L63">
@@ -3541,7 +3561,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
@@ -3571,10 +3591,10 @@
         <v>1</v>
       </c>
       <c r="H64">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I64">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="J64" t="inlineStr">
         <is>
@@ -3583,22 +3603,17 @@
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L64">
         <v>0</v>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
@@ -3628,10 +3643,10 @@
         <v>1</v>
       </c>
       <c r="H65">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="I65">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -3650,7 +3665,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
@@ -3683,7 +3698,7 @@
         <v>28</v>
       </c>
       <c r="I66">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="J66" t="inlineStr">
         <is>
@@ -3702,7 +3717,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
@@ -3732,10 +3747,10 @@
         <v>1</v>
       </c>
       <c r="H67">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I67">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="J67" t="inlineStr">
         <is>
@@ -3754,7 +3769,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
@@ -3784,10 +3799,10 @@
         <v>1</v>
       </c>
       <c r="H68">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="I68">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="J68" t="inlineStr">
         <is>
@@ -3806,7 +3821,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
@@ -3836,10 +3851,10 @@
         <v>1</v>
       </c>
       <c r="H69">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="I69">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="J69" t="inlineStr">
         <is>
@@ -3858,7 +3873,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
@@ -3888,10 +3903,10 @@
         <v>1</v>
       </c>
       <c r="H70">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I70">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="J70" t="inlineStr">
         <is>
@@ -3910,7 +3925,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
@@ -3940,10 +3955,10 @@
         <v>1</v>
       </c>
       <c r="H71">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="I71">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="J71" t="inlineStr">
         <is>
@@ -3952,22 +3967,17 @@
       </c>
       <c r="K71" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDPF-1</t>
         </is>
       </c>
       <c r="L71">
         <v>0</v>
-      </c>
-      <c r="P71" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
@@ -3997,14 +4007,19 @@
         <v>1</v>
       </c>
       <c r="H72">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="I72">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>MEDPF-2</t>
         </is>
       </c>
       <c r="L72">
@@ -4014,7 +4029,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
@@ -4044,10 +4059,10 @@
         <v>1</v>
       </c>
       <c r="H73">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I73">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J73" t="inlineStr">
         <is>
@@ -4066,7 +4081,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
@@ -4096,19 +4111,14 @@
         <v>1</v>
       </c>
       <c r="H74">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="I74">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="J74" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L74">
@@ -4118,7 +4128,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -4148,34 +4158,24 @@
         <v>1</v>
       </c>
       <c r="H75">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I75">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L75">
         <v>0</v>
-      </c>
-      <c r="P75" t="inlineStr">
-        <is>
-          <t>parassitato</t>
-        </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -4205,29 +4205,29 @@
         <v>1</v>
       </c>
       <c r="H76">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I76">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L76">
         <v>0</v>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>NA w inferred</t>
+        </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
@@ -4257,19 +4257,14 @@
         <v>1</v>
       </c>
       <c r="H77">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I77">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L77">
@@ -4279,7 +4274,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
@@ -4299,7 +4294,7 @@
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F78">
@@ -4309,19 +4304,14 @@
         <v>1</v>
       </c>
       <c r="H78">
-        <v>17</v>
+        <v>212</v>
       </c>
       <c r="I78">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L78">
@@ -4331,7 +4321,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
@@ -4351,7 +4341,7 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F79">
@@ -4361,19 +4351,14 @@
         <v>1</v>
       </c>
       <c r="H79">
-        <v>21</v>
+        <v>171</v>
       </c>
       <c r="I79">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L79">
@@ -4383,7 +4368,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
@@ -4403,7 +4388,7 @@
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F80">
@@ -4413,19 +4398,14 @@
         <v>1</v>
       </c>
       <c r="H80">
-        <v>21</v>
+        <v>212</v>
       </c>
       <c r="I80">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L80">
@@ -4435,7 +4415,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
@@ -4455,7 +4435,7 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F81">
@@ -4465,19 +4445,14 @@
         <v>1</v>
       </c>
       <c r="H81">
-        <v>28</v>
+        <v>167</v>
       </c>
       <c r="I81">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L81">
@@ -4487,7 +4462,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
@@ -4507,7 +4482,7 @@
       </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F82">
@@ -4517,19 +4492,14 @@
         <v>1</v>
       </c>
       <c r="H82">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="I82">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J82" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L82">
@@ -4539,7 +4509,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
@@ -4559,7 +4529,7 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F83">
@@ -4569,34 +4539,24 @@
         <v>1</v>
       </c>
       <c r="H83">
-        <v>24</v>
+        <v>190</v>
       </c>
       <c r="I83">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L83">
         <v>0</v>
-      </c>
-      <c r="P83" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
@@ -4616,7 +4576,7 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F84">
@@ -4626,34 +4586,24 @@
         <v>1</v>
       </c>
       <c r="H84">
-        <v>22</v>
+        <v>170</v>
       </c>
       <c r="I84">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L84">
         <v>0</v>
-      </c>
-      <c r="P84" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
@@ -4673,7 +4623,7 @@
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F85">
@@ -4683,19 +4633,14 @@
         <v>1</v>
       </c>
       <c r="H85">
-        <v>20</v>
+        <v>175</v>
       </c>
       <c r="I85">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="J85" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L85">
@@ -4705,7 +4650,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
@@ -4725,7 +4670,7 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>URANSCA</t>
         </is>
       </c>
       <c r="F86">
@@ -4735,19 +4680,14 @@
         <v>1</v>
       </c>
       <c r="H86">
-        <v>23</v>
+        <v>153</v>
       </c>
       <c r="I86">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L86">
@@ -4757,7 +4697,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
@@ -4777,7 +4717,7 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>TRAHDRA</t>
         </is>
       </c>
       <c r="F87">
@@ -4787,19 +4727,14 @@
         <v>1</v>
       </c>
       <c r="H87">
-        <v>24</v>
+        <v>180</v>
       </c>
       <c r="I87">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L87">
@@ -4809,7 +4744,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
@@ -4829,7 +4764,7 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>BUGLLUT</t>
         </is>
       </c>
       <c r="F88">
@@ -4839,19 +4774,14 @@
         <v>1</v>
       </c>
       <c r="H88">
-        <v>26</v>
+        <v>92</v>
       </c>
       <c r="I88">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L88">
@@ -4861,7 +4791,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
@@ -4881,7 +4811,7 @@
       </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ARNOLAT</t>
         </is>
       </c>
       <c r="F89">
@@ -4891,19 +4821,14 @@
         <v>1</v>
       </c>
       <c r="H89">
-        <v>29</v>
+        <v>90</v>
       </c>
       <c r="I89">
-        <v>12</v>
+        <v>-1</v>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L89">
@@ -4913,7 +4838,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
@@ -4933,7 +4858,7 @@
       </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F90">
@@ -4943,14 +4868,19 @@
         <v>1</v>
       </c>
       <c r="H90">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="I90">
-        <v>5</v>
+        <v>58</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L90">
@@ -4960,7 +4890,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
@@ -4980,7 +4910,7 @@
       </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F91">
@@ -4990,10 +4920,10 @@
         <v>1</v>
       </c>
       <c r="H91">
-        <v>19</v>
+        <v>197</v>
       </c>
       <c r="I91">
-        <v>3</v>
+        <v>54</v>
       </c>
       <c r="J91" t="inlineStr">
         <is>
@@ -5002,7 +4932,7 @@
       </c>
       <c r="K91" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L91">
@@ -5012,7 +4942,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
@@ -5032,7 +4962,7 @@
       </c>
       <c r="E92" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F92">
@@ -5042,10 +4972,10 @@
         <v>1</v>
       </c>
       <c r="H92">
-        <v>17</v>
+        <v>162</v>
       </c>
       <c r="I92">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="J92" t="inlineStr">
         <is>
@@ -5059,7 +4989,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
@@ -5079,7 +5009,7 @@
       </c>
       <c r="E93" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F93">
@@ -5089,19 +5019,19 @@
         <v>1</v>
       </c>
       <c r="H93">
-        <v>25</v>
+        <v>153</v>
       </c>
       <c r="I93">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K93" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L93">
@@ -5111,7 +5041,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
@@ -5131,7 +5061,7 @@
       </c>
       <c r="E94" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F94">
@@ -5141,14 +5071,19 @@
         <v>1</v>
       </c>
       <c r="H94">
-        <v>17</v>
+        <v>183</v>
       </c>
       <c r="I94">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="J94" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>MEDFI-2</t>
         </is>
       </c>
       <c r="L94">
@@ -5158,7 +5093,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
@@ -5178,7 +5113,7 @@
       </c>
       <c r="E95" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F95">
@@ -5188,10 +5123,10 @@
         <v>1</v>
       </c>
       <c r="H95">
-        <v>23</v>
+        <v>197</v>
       </c>
       <c r="I95">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="J95" t="inlineStr">
         <is>
@@ -5200,7 +5135,7 @@
       </c>
       <c r="K95" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L95">
@@ -5210,7 +5145,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
@@ -5230,7 +5165,7 @@
       </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F96">
@@ -5240,10 +5175,10 @@
         <v>1</v>
       </c>
       <c r="H96">
-        <v>18</v>
+        <v>220</v>
       </c>
       <c r="I96">
-        <v>5</v>
+        <v>68</v>
       </c>
       <c r="J96" t="inlineStr">
         <is>
@@ -5252,7 +5187,7 @@
       </c>
       <c r="K96" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L96">
@@ -5262,7 +5197,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
@@ -5282,7 +5217,7 @@
       </c>
       <c r="E97" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MERLMER</t>
         </is>
       </c>
       <c r="F97">
@@ -5292,10 +5227,10 @@
         <v>1</v>
       </c>
       <c r="H97">
-        <v>22</v>
+        <v>196</v>
       </c>
       <c r="I97">
-        <v>7</v>
+        <v>70</v>
       </c>
       <c r="J97" t="inlineStr">
         <is>
@@ -5304,7 +5239,7 @@
       </c>
       <c r="K97" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDFI-1</t>
         </is>
       </c>
       <c r="L97">
@@ -5314,7 +5249,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
@@ -5334,7 +5269,7 @@
       </c>
       <c r="E98" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F98">
@@ -5344,19 +5279,14 @@
         <v>1</v>
       </c>
       <c r="H98">
-        <v>20</v>
+        <v>195</v>
       </c>
       <c r="I98">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L98">
@@ -5366,7 +5296,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
@@ -5386,7 +5316,7 @@
       </c>
       <c r="E99" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>TRIGLUC</t>
         </is>
       </c>
       <c r="F99">
@@ -5396,19 +5326,14 @@
         <v>1</v>
       </c>
       <c r="H99">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="I99">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L99">
@@ -5418,7 +5343,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
@@ -5438,7 +5363,7 @@
       </c>
       <c r="E100" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F100">
@@ -5448,10 +5373,10 @@
         <v>1</v>
       </c>
       <c r="H100">
-        <v>20</v>
+        <v>161</v>
       </c>
       <c r="I100">
-        <v>5</v>
+        <v>506</v>
       </c>
       <c r="J100" t="inlineStr">
         <is>
@@ -5460,7 +5385,7 @@
       </c>
       <c r="K100" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>SOSEF-2</t>
         </is>
       </c>
       <c r="L100">
@@ -5470,7 +5395,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
@@ -5490,7 +5415,7 @@
       </c>
       <c r="E101" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F101">
@@ -5500,19 +5425,19 @@
         <v>1</v>
       </c>
       <c r="H101">
-        <v>27</v>
+        <v>100</v>
       </c>
       <c r="I101">
-        <v>13</v>
+        <v>133</v>
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>SOSEM-2</t>
         </is>
       </c>
       <c r="L101">
@@ -5522,7 +5447,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
@@ -5542,7 +5467,7 @@
       </c>
       <c r="E102" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>ELEDMOS</t>
         </is>
       </c>
       <c r="F102">
@@ -5552,19 +5477,14 @@
         <v>1</v>
       </c>
       <c r="H102">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="I102">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L102">
@@ -5574,7 +5494,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
@@ -5594,7 +5514,7 @@
       </c>
       <c r="E103" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>LOPHBUD</t>
         </is>
       </c>
       <c r="F103">
@@ -5604,19 +5524,14 @@
         <v>1</v>
       </c>
       <c r="H103">
-        <v>20</v>
+        <v>300</v>
       </c>
       <c r="I103">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>I</t>
         </is>
       </c>
       <c r="L103">
@@ -5626,7 +5541,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
@@ -5646,7 +5561,7 @@
       </c>
       <c r="E104" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F104">
@@ -5656,14 +5571,19 @@
         <v>1</v>
       </c>
       <c r="H104">
-        <v>17</v>
+        <v>497</v>
       </c>
       <c r="I104">
-        <v>4</v>
+        <v>750</v>
       </c>
       <c r="J104" t="inlineStr">
         <is>
           <t>M</t>
+        </is>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>MEDSE-3</t>
         </is>
       </c>
       <c r="L104">
@@ -5673,7 +5593,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
@@ -5693,7 +5613,7 @@
       </c>
       <c r="E105" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>RAJAAST</t>
         </is>
       </c>
       <c r="F105">
@@ -5703,19 +5623,19 @@
         <v>1</v>
       </c>
       <c r="H105">
-        <v>21</v>
+        <v>210</v>
       </c>
       <c r="I105">
-        <v>6</v>
+        <v>47</v>
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>F</t>
+          <t>M</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>MEDSE-1</t>
         </is>
       </c>
       <c r="L105">
@@ -5725,7 +5645,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
@@ -5745,7 +5665,7 @@
       </c>
       <c r="E106" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SOLEVUL</t>
         </is>
       </c>
       <c r="F106">
@@ -5755,10 +5675,10 @@
         <v>1</v>
       </c>
       <c r="H106">
-        <v>26</v>
+        <v>274</v>
       </c>
       <c r="I106">
-        <v>11</v>
+        <v>236</v>
       </c>
       <c r="J106" t="inlineStr">
         <is>
@@ -5767,17 +5687,22 @@
       </c>
       <c r="K106" t="inlineStr">
         <is>
-          <t>MEDPF-1</t>
+          <t>HOLRA-3</t>
         </is>
       </c>
       <c r="L106">
         <v>0</v>
+      </c>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>SS8132</t>
+        </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
@@ -5797,7 +5722,7 @@
       </c>
       <c r="E107" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>MELIKER</t>
         </is>
       </c>
       <c r="F107">
@@ -5807,19 +5732,14 @@
         <v>1</v>
       </c>
       <c r="H107">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="I107">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="J107" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>M</t>
         </is>
       </c>
       <c r="L107">
@@ -5829,7 +5749,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
@@ -5849,7 +5769,7 @@
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>SEPIOFF</t>
         </is>
       </c>
       <c r="F108">
@@ -5859,10 +5779,10 @@
         <v>1</v>
       </c>
       <c r="H108">
-        <v>23</v>
+        <v>81</v>
       </c>
       <c r="I108">
-        <v>8</v>
+        <v>87</v>
       </c>
       <c r="J108" t="inlineStr">
         <is>
@@ -5871,7 +5791,7 @@
       </c>
       <c r="K108" t="inlineStr">
         <is>
-          <t>MEDPF-2</t>
+          <t>SOSEF-1</t>
         </is>
       </c>
       <c r="L108">
@@ -5881,7 +5801,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
@@ -5901,7 +5821,7 @@
       </c>
       <c r="E109" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F109">
@@ -5911,19 +5831,14 @@
         <v>1</v>
       </c>
       <c r="H109">
-        <v>25</v>
+        <v>52</v>
       </c>
       <c r="I109">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L109">
@@ -5933,7 +5848,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
@@ -5953,7 +5868,7 @@
       </c>
       <c r="E110" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F110">
@@ -5963,14 +5878,14 @@
         <v>1</v>
       </c>
       <c r="H110">
-        <v>18</v>
+        <v>47</v>
       </c>
       <c r="I110">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L110">
@@ -5980,7 +5895,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
@@ -6000,7 +5915,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F111">
@@ -6010,19 +5925,14 @@
         <v>1</v>
       </c>
       <c r="H111">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="I111">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="J111" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L111">
@@ -6032,7 +5942,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
@@ -6052,7 +5962,7 @@
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F112">
@@ -6062,19 +5972,14 @@
         <v>1</v>
       </c>
       <c r="H112">
+        <v>53</v>
+      </c>
+      <c r="I112">
         <v>21</v>
       </c>
-      <c r="I112">
-        <v>5</v>
-      </c>
       <c r="J112" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L112">
@@ -6084,7 +5989,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
@@ -6104,7 +6009,7 @@
       </c>
       <c r="E113" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F113">
@@ -6114,19 +6019,14 @@
         <v>1</v>
       </c>
       <c r="H113">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="I113">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L113">
@@ -6136,7 +6036,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
@@ -6156,7 +6056,7 @@
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F114">
@@ -6166,19 +6066,14 @@
         <v>1</v>
       </c>
       <c r="H114">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="I114">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="J114" t="inlineStr">
         <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L114">
@@ -6188,7 +6083,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
@@ -6208,7 +6103,7 @@
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F115">
@@ -6218,14 +6113,14 @@
         <v>1</v>
       </c>
       <c r="H115">
-        <v>16</v>
+        <v>51</v>
       </c>
       <c r="I115">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L115">
@@ -6235,7 +6130,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
@@ -6255,7 +6150,7 @@
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F116">
@@ -6265,14 +6160,14 @@
         <v>1</v>
       </c>
       <c r="H116">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="I116">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L116">
@@ -6282,7 +6177,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
@@ -6302,7 +6197,7 @@
       </c>
       <c r="E117" t="inlineStr">
         <is>
-          <t>PAPELON</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F117">
@@ -6312,14 +6207,14 @@
         <v>1</v>
       </c>
       <c r="H117">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="I117">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>M</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L117">
@@ -6329,7 +6224,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
@@ -6344,12 +6239,12 @@
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>EUTRGUR</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F118">
@@ -6359,14 +6254,14 @@
         <v>1</v>
       </c>
       <c r="H118">
-        <v>182</v>
+        <v>32</v>
       </c>
       <c r="I118">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L118">
@@ -6376,7 +6271,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
@@ -6391,12 +6286,12 @@
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F119">
@@ -6406,14 +6301,14 @@
         <v>1</v>
       </c>
       <c r="H119">
-        <v>220</v>
+        <v>31</v>
       </c>
       <c r="I119">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J119" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L119">
@@ -6423,7 +6318,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>SOLEMON2024</t>
+          <t>SOLEMON2025</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
@@ -6438,12 +6333,12 @@
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>1-RAP</t>
+          <t>2-RAP</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
-          <t>LOPHBUD</t>
+          <t>CHLAGLA</t>
         </is>
       </c>
       <c r="F120">
@@ -6453,2552 +6348,17 @@
         <v>1</v>
       </c>
       <c r="H120">
-        <v>204</v>
+        <v>32</v>
       </c>
       <c r="I120">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="J120" t="inlineStr">
         <is>
-          <t>I</t>
+          <t>N</t>
         </is>
       </c>
       <c r="L120">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B121" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C121" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E121" t="inlineStr">
-        <is>
-          <t>LOPHBUD</t>
-        </is>
-      </c>
-      <c r="F121">
-        <v>1</v>
-      </c>
-      <c r="G121">
-        <v>1</v>
-      </c>
-      <c r="H121">
-        <v>200</v>
-      </c>
-      <c r="I121">
-        <v>-1</v>
-      </c>
-      <c r="J121" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L121">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B122" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C122" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E122" t="inlineStr">
-        <is>
-          <t>MERLMER</t>
-        </is>
-      </c>
-      <c r="F122">
-        <v>1</v>
-      </c>
-      <c r="G122">
-        <v>1</v>
-      </c>
-      <c r="H122">
-        <v>285</v>
-      </c>
-      <c r="I122">
-        <v>183</v>
-      </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
-        </is>
-      </c>
-      <c r="L122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B123" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C123" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E123" t="inlineStr">
-        <is>
-          <t>MERLMER</t>
-        </is>
-      </c>
-      <c r="F123">
-        <v>1</v>
-      </c>
-      <c r="G123">
-        <v>1</v>
-      </c>
-      <c r="H123">
-        <v>293</v>
-      </c>
-      <c r="I123">
-        <v>173</v>
-      </c>
-      <c r="J123" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>MEDFI-2</t>
-        </is>
-      </c>
-      <c r="L123">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B124" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C124" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E124" t="inlineStr">
-        <is>
-          <t>MERLMER</t>
-        </is>
-      </c>
-      <c r="F124">
-        <v>1</v>
-      </c>
-      <c r="G124">
-        <v>1</v>
-      </c>
-      <c r="H124">
-        <v>203</v>
-      </c>
-      <c r="I124">
-        <v>63</v>
-      </c>
-      <c r="J124" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
-        </is>
-      </c>
-      <c r="L124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B125" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C125" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E125" t="inlineStr">
-        <is>
-          <t>MERLMER</t>
-        </is>
-      </c>
-      <c r="F125">
-        <v>1</v>
-      </c>
-      <c r="G125">
-        <v>1</v>
-      </c>
-      <c r="H125">
-        <v>159</v>
-      </c>
-      <c r="I125">
-        <v>26</v>
-      </c>
-      <c r="J125" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>MEDFI-1</t>
-        </is>
-      </c>
-      <c r="L125">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B126" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C126" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E126" t="inlineStr">
-        <is>
-          <t>TRAHDRA</t>
-        </is>
-      </c>
-      <c r="F126">
-        <v>1</v>
-      </c>
-      <c r="G126">
-        <v>1</v>
-      </c>
-      <c r="H126">
-        <v>134</v>
-      </c>
-      <c r="I126">
-        <v>-1</v>
-      </c>
-      <c r="J126" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>URANSCA</t>
-        </is>
-      </c>
-      <c r="F127">
-        <v>1</v>
-      </c>
-      <c r="G127">
-        <v>1</v>
-      </c>
-      <c r="H127">
-        <v>168</v>
-      </c>
-      <c r="I127">
-        <v>-1</v>
-      </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>SEPIOFF</t>
-        </is>
-      </c>
-      <c r="F128">
-        <v>1</v>
-      </c>
-      <c r="G128">
-        <v>1</v>
-      </c>
-      <c r="H128">
-        <v>120</v>
-      </c>
-      <c r="I128">
-        <v>210</v>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>SOSEF-1</t>
-        </is>
-      </c>
-      <c r="L128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>ELEDCIR</t>
-        </is>
-      </c>
-      <c r="F129">
-        <v>1</v>
-      </c>
-      <c r="G129">
-        <v>1</v>
-      </c>
-      <c r="H129">
-        <v>58</v>
-      </c>
-      <c r="I129">
-        <v>-1</v>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>I</t>
-        </is>
-      </c>
-      <c r="L129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B130" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C130" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E130" t="inlineStr">
-        <is>
-          <t>RAJAAST</t>
-        </is>
-      </c>
-      <c r="F130">
-        <v>1</v>
-      </c>
-      <c r="G130">
-        <v>1</v>
-      </c>
-      <c r="H130">
-        <v>87</v>
-      </c>
-      <c r="I130">
-        <v>3</v>
-      </c>
-      <c r="J130" t="inlineStr">
-        <is>
-          <t>N</t>
-        </is>
-      </c>
-      <c r="L130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B131" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C131" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E131" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F131">
-        <v>1</v>
-      </c>
-      <c r="G131">
-        <v>1</v>
-      </c>
-      <c r="H131">
-        <v>26</v>
-      </c>
-      <c r="I131">
-        <v>9</v>
-      </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L131">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B132" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C132" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E132" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F132">
-        <v>1</v>
-      </c>
-      <c r="G132">
-        <v>1</v>
-      </c>
-      <c r="H132">
-        <v>24</v>
-      </c>
-      <c r="I132">
-        <v>8</v>
-      </c>
-      <c r="J132" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L132">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B133" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C133" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E133" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F133">
-        <v>1</v>
-      </c>
-      <c r="G133">
-        <v>1</v>
-      </c>
-      <c r="H133">
-        <v>23</v>
-      </c>
-      <c r="I133">
-        <v>8</v>
-      </c>
-      <c r="J133" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F134">
-        <v>1</v>
-      </c>
-      <c r="G134">
-        <v>1</v>
-      </c>
-      <c r="H134">
-        <v>20</v>
-      </c>
-      <c r="I134">
-        <v>6</v>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L134">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B135" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C135" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E135" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F135">
-        <v>1</v>
-      </c>
-      <c r="G135">
-        <v>1</v>
-      </c>
-      <c r="H135">
-        <v>19</v>
-      </c>
-      <c r="I135">
-        <v>5</v>
-      </c>
-      <c r="J135" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L135">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B136" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C136" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E136" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F136">
-        <v>1</v>
-      </c>
-      <c r="G136">
-        <v>1</v>
-      </c>
-      <c r="H136">
-        <v>24</v>
-      </c>
-      <c r="I136">
-        <v>8</v>
-      </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L136">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B137" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C137" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E137" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F137">
-        <v>1</v>
-      </c>
-      <c r="G137">
-        <v>1</v>
-      </c>
-      <c r="H137">
-        <v>26</v>
-      </c>
-      <c r="I137">
-        <v>11</v>
-      </c>
-      <c r="J137" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L137">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B138" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C138" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E138" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F138">
-        <v>1</v>
-      </c>
-      <c r="G138">
-        <v>1</v>
-      </c>
-      <c r="H138">
-        <v>28</v>
-      </c>
-      <c r="I138">
-        <v>13</v>
-      </c>
-      <c r="J138" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L138">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F139">
-        <v>1</v>
-      </c>
-      <c r="G139">
-        <v>1</v>
-      </c>
-      <c r="H139">
-        <v>26</v>
-      </c>
-      <c r="I139">
-        <v>12</v>
-      </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L139">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F140">
-        <v>1</v>
-      </c>
-      <c r="G140">
-        <v>1</v>
-      </c>
-      <c r="H140">
-        <v>26</v>
-      </c>
-      <c r="I140">
-        <v>12</v>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B141" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C141" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E141" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F141">
-        <v>1</v>
-      </c>
-      <c r="G141">
-        <v>1</v>
-      </c>
-      <c r="H141">
-        <v>28</v>
-      </c>
-      <c r="I141">
-        <v>13</v>
-      </c>
-      <c r="J141" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L141">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B142" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C142" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E142" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F142">
-        <v>1</v>
-      </c>
-      <c r="G142">
-        <v>1</v>
-      </c>
-      <c r="H142">
-        <v>25</v>
-      </c>
-      <c r="I142">
-        <v>9</v>
-      </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L142">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B143" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C143" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E143" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F143">
-        <v>1</v>
-      </c>
-      <c r="G143">
-        <v>1</v>
-      </c>
-      <c r="H143">
-        <v>26</v>
-      </c>
-      <c r="I143">
-        <v>10</v>
-      </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B144" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C144" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E144" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F144">
-        <v>1</v>
-      </c>
-      <c r="G144">
-        <v>1</v>
-      </c>
-      <c r="H144">
-        <v>17</v>
-      </c>
-      <c r="I144">
-        <v>4</v>
-      </c>
-      <c r="J144" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F145">
-        <v>1</v>
-      </c>
-      <c r="G145">
-        <v>1</v>
-      </c>
-      <c r="H145">
-        <v>21</v>
-      </c>
-      <c r="I145">
-        <v>6</v>
-      </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L145">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F146">
-        <v>1</v>
-      </c>
-      <c r="G146">
-        <v>1</v>
-      </c>
-      <c r="H146">
-        <v>27</v>
-      </c>
-      <c r="I146">
-        <v>11</v>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B147" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C147" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E147" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F147">
-        <v>1</v>
-      </c>
-      <c r="G147">
-        <v>1</v>
-      </c>
-      <c r="H147">
-        <v>21</v>
-      </c>
-      <c r="I147">
-        <v>6</v>
-      </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L147">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B148" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C148" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E148" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F148">
-        <v>1</v>
-      </c>
-      <c r="G148">
-        <v>1</v>
-      </c>
-      <c r="H148">
-        <v>22</v>
-      </c>
-      <c r="I148">
-        <v>7</v>
-      </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B149" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C149" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E149" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F149">
-        <v>1</v>
-      </c>
-      <c r="G149">
-        <v>1</v>
-      </c>
-      <c r="H149">
-        <v>25</v>
-      </c>
-      <c r="I149">
-        <v>9</v>
-      </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L149">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B150" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C150" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E150" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F150">
-        <v>1</v>
-      </c>
-      <c r="G150">
-        <v>1</v>
-      </c>
-      <c r="H150">
-        <v>23</v>
-      </c>
-      <c r="I150">
-        <v>8</v>
-      </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L150">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B151" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C151" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E151" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F151">
-        <v>1</v>
-      </c>
-      <c r="G151">
-        <v>1</v>
-      </c>
-      <c r="H151">
-        <v>26</v>
-      </c>
-      <c r="I151">
-        <v>11</v>
-      </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B152" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C152" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E152" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F152">
-        <v>1</v>
-      </c>
-      <c r="G152">
-        <v>1</v>
-      </c>
-      <c r="H152">
-        <v>23</v>
-      </c>
-      <c r="I152">
-        <v>9</v>
-      </c>
-      <c r="J152" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B153" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C153" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E153" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F153">
-        <v>1</v>
-      </c>
-      <c r="G153">
-        <v>1</v>
-      </c>
-      <c r="H153">
-        <v>21</v>
-      </c>
-      <c r="I153">
-        <v>6</v>
-      </c>
-      <c r="J153" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L153">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F154">
-        <v>1</v>
-      </c>
-      <c r="G154">
-        <v>1</v>
-      </c>
-      <c r="H154">
-        <v>19</v>
-      </c>
-      <c r="I154">
-        <v>4</v>
-      </c>
-      <c r="J154" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L154">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F155">
-        <v>1</v>
-      </c>
-      <c r="G155">
-        <v>1</v>
-      </c>
-      <c r="H155">
-        <v>24</v>
-      </c>
-      <c r="I155">
-        <v>9</v>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L155">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F156">
-        <v>1</v>
-      </c>
-      <c r="G156">
-        <v>1</v>
-      </c>
-      <c r="H156">
-        <v>22</v>
-      </c>
-      <c r="I156">
-        <v>7</v>
-      </c>
-      <c r="J156" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L156">
-        <v>0</v>
-      </c>
-      <c r="P156" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B157" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C157" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E157" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F157">
-        <v>1</v>
-      </c>
-      <c r="G157">
-        <v>1</v>
-      </c>
-      <c r="H157">
-        <v>26</v>
-      </c>
-      <c r="I157">
-        <v>11</v>
-      </c>
-      <c r="J157" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L157">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B158" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C158" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E158" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F158">
-        <v>1</v>
-      </c>
-      <c r="G158">
-        <v>1</v>
-      </c>
-      <c r="H158">
-        <v>19</v>
-      </c>
-      <c r="I158">
-        <v>5</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L158">
-        <v>0</v>
-      </c>
-      <c r="P158" t="inlineStr">
-        <is>
-          <t>NA l inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B159" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C159" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F159">
-        <v>1</v>
-      </c>
-      <c r="G159">
-        <v>1</v>
-      </c>
-      <c r="H159">
-        <v>24</v>
-      </c>
-      <c r="I159">
-        <v>8</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L159">
-        <v>0</v>
-      </c>
-      <c r="P159" t="inlineStr">
-        <is>
-          <t>NA w inferred</t>
-        </is>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B160" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C160" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F160">
-        <v>1</v>
-      </c>
-      <c r="G160">
-        <v>1</v>
-      </c>
-      <c r="H160">
-        <v>23</v>
-      </c>
-      <c r="I160">
-        <v>7</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>MEDPF-1</t>
-        </is>
-      </c>
-      <c r="L160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B161" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C161" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F161">
-        <v>1</v>
-      </c>
-      <c r="G161">
-        <v>1</v>
-      </c>
-      <c r="H161">
-        <v>19</v>
-      </c>
-      <c r="I161">
-        <v>5</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B162" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C162" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>1-RAP</t>
-        </is>
-      </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>PAPELON</t>
-        </is>
-      </c>
-      <c r="F162">
-        <v>1</v>
-      </c>
-      <c r="G162">
-        <v>1</v>
-      </c>
-      <c r="H162">
-        <v>22</v>
-      </c>
-      <c r="I162">
-        <v>6</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>MEDPF-2</t>
-        </is>
-      </c>
-      <c r="L162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B163" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C163" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E163" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F163">
-        <v>1</v>
-      </c>
-      <c r="G163">
-        <v>1</v>
-      </c>
-      <c r="H163">
-        <v>26</v>
-      </c>
-      <c r="I163">
-        <v>-1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L163">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B164" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C164" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E164" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F164">
-        <v>1</v>
-      </c>
-      <c r="G164">
-        <v>1</v>
-      </c>
-      <c r="H164">
-        <v>24</v>
-      </c>
-      <c r="I164">
-        <v>-1</v>
-      </c>
-      <c r="J164" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L164">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C165" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F165">
-        <v>1</v>
-      </c>
-      <c r="G165">
-        <v>1</v>
-      </c>
-      <c r="H165">
-        <v>22</v>
-      </c>
-      <c r="I165">
-        <v>-1</v>
-      </c>
-      <c r="J165" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B166" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C166" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E166" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F166">
-        <v>1</v>
-      </c>
-      <c r="G166">
-        <v>1</v>
-      </c>
-      <c r="H166">
-        <v>25</v>
-      </c>
-      <c r="I166">
-        <v>-1</v>
-      </c>
-      <c r="J166" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L166">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B167" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C167" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E167" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F167">
-        <v>1</v>
-      </c>
-      <c r="G167">
-        <v>1</v>
-      </c>
-      <c r="H167">
-        <v>23</v>
-      </c>
-      <c r="I167">
-        <v>-1</v>
-      </c>
-      <c r="J167" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F168">
-        <v>1</v>
-      </c>
-      <c r="G168">
-        <v>1</v>
-      </c>
-      <c r="H168">
-        <v>22</v>
-      </c>
-      <c r="I168">
-        <v>-1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="L168">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B169" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C169" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E169" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F169">
-        <v>1</v>
-      </c>
-      <c r="G169">
-        <v>1</v>
-      </c>
-      <c r="H169">
-        <v>29</v>
-      </c>
-      <c r="I169">
-        <v>-1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L169">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t>SOLEMON2024</t>
-        </is>
-      </c>
-      <c r="B170" t="inlineStr">
-        <is>
-          <t>ITA17</t>
-        </is>
-      </c>
-      <c r="C170" t="inlineStr">
-        <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2-RAP</t>
-        </is>
-      </c>
-      <c r="E170" t="inlineStr">
-        <is>
-          <t>LIOCDEP</t>
-        </is>
-      </c>
-      <c r="F170">
-        <v>1</v>
-      </c>
-      <c r="G170">
-        <v>1</v>
-      </c>
-      <c r="H170">
-        <v>25</v>
-      </c>
-      <c r="I170">
-        <v>-1</v>
-      </c>
-      <c r="J170" t="inlineStr">
-        <is>
-          <t>F</t>
-        </is>
-      </c>
-      <c r="L170">
         <v>0</v>
       </c>
     </row>
